--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_new</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,15 +492,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,62 +535,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,21 +598,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,35 +635,35 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="A5:B5 J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -662,7 +680,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -679,7 +697,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -696,7 +714,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -713,7 +731,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -730,7 +748,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -749,7 +767,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -764,32 +782,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -803,7 +821,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -817,7 +835,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -831,7 +849,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -845,7 +863,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -859,7 +877,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -873,7 +891,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -887,7 +905,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -901,7 +919,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -915,7 +933,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -929,7 +947,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -943,7 +961,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -957,7 +975,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -972,7 +990,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -987,32 +1005,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1025,8 +1043,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1039,8 +1057,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1053,8 +1071,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1067,8 +1085,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1081,8 +1099,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1095,8 +1113,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1109,8 +1127,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1123,8 +1141,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1137,8 +1155,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1151,8 +1169,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1165,8 +1183,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1179,8 +1197,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1193,8 +1211,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1207,8 +1225,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1221,8 +1239,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1235,8 +1253,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1249,8 +1267,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1263,8 +1281,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1277,8 +1295,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1293,7 +1311,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1308,74 +1326,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A5:B5 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1386,19 +1404,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1409,22 +1427,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1435,16 +1453,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1455,19 +1473,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1478,22 +1496,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1504,10 +1522,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1518,10 +1536,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1532,10 +1550,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1546,10 +1564,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1560,10 +1578,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1574,10 +1592,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1588,10 +1606,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1603,7 +1621,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1618,83 +1636,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1759,7 +1777,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1824,7 +1842,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1889,7 +1907,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1954,7 +1972,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2019,7 +2037,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2084,7 +2102,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2149,7 +2167,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2214,7 +2232,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2279,7 +2297,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2344,7 +2362,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2409,7 +2427,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2474,7 +2492,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2540,7 +2558,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2555,41 +2573,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2605,11 +2623,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2625,11 +2643,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2645,11 +2663,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2665,11 +2683,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2685,11 +2703,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2705,11 +2723,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2725,11 +2743,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2745,11 +2763,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2765,11 +2783,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2785,11 +2803,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2805,11 +2823,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2825,11 +2843,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2845,11 +2863,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2865,11 +2883,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2885,11 +2903,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2905,11 +2923,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2925,11 +2943,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2945,11 +2963,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2965,11 +2983,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2987,7 +3005,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3002,38 +3020,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3044,10 +3062,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3058,10 +3076,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3072,10 +3090,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3086,10 +3104,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3100,10 +3118,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3114,10 +3132,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3128,10 +3146,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3142,10 +3160,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3156,10 +3174,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3170,10 +3188,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3184,10 +3202,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3198,10 +3216,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3213,7 +3231,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3228,89 +3246,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3325,124 +3343,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3457,124 +3475,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3589,29 +3607,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3622,7 +3640,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3633,7 +3651,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3644,7 +3662,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3655,7 +3673,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3666,7 +3684,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3677,7 +3695,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3688,7 +3706,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3699,7 +3717,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3710,7 +3728,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3721,7 +3739,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3732,7 +3750,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3743,7 +3761,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3755,7 +3773,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3770,29 +3788,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3802,8 +3820,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3813,8 +3831,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3824,8 +3842,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3835,8 +3853,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3846,8 +3864,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3857,8 +3875,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3868,8 +3886,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3879,8 +3897,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3890,8 +3908,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3901,8 +3919,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3912,8 +3930,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3923,8 +3941,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3934,8 +3952,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3945,8 +3963,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3956,8 +3974,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3967,8 +3985,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3978,8 +3996,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3989,8 +4007,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4000,8 +4018,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -4013,7 +4031,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -494,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D2:E7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="A5:B5 J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,13 +669,15 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>-22.0149320730417</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*D2)</f>
+        <v>3.30223981095625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,13 +688,15 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.285369137837419</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*D3)</f>
+        <v>0.0428053706756129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,13 +707,15 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.0578197638950879</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*D4)</f>
+        <v>0.00867296458426318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,13 +726,15 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>-0.00439408376660814</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*D5)</f>
+        <v>0.000659112564991221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,13 +745,15 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6.84865633256387</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*D6)</f>
+        <v>1.02729844988458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,13 +764,15 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>-0.00242684925806694</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*D7)</f>
+        <v>0.000364027388710041</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -783,7 +795,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,7 +1018,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1327,16 +1339,16 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A5:B5 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D2:E7 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
@@ -1637,7 +1649,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D2:E7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2574,7 +2586,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:E7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,7 +3033,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:E7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3247,7 +3259,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3344,7 +3356,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3476,7 +3488,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3608,7 +3620,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3789,7 +3801,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_new</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D2:E7 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,24 +493,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -587,6 +569,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -596,27 +581,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -635,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B3 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,24 +613,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -682,7 +649,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -701,7 +668,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -720,7 +687,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -739,7 +706,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -758,7 +725,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -795,7 +762,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,21 +772,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -833,7 +800,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -847,7 +814,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -861,7 +828,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -875,7 +842,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +856,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +870,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -917,7 +884,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -931,7 +898,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -945,7 +912,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -959,7 +926,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -973,7 +940,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -987,7 +954,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1018,7 +985,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,21 +995,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1056,7 +1023,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1070,7 +1037,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1084,7 +1051,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1098,7 +1065,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1112,7 +1079,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1126,7 +1093,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1140,7 +1107,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1154,7 +1121,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1168,7 +1135,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1182,7 +1149,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1196,7 +1163,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1210,7 +1177,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1224,7 +1191,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1238,7 +1205,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1252,7 +1219,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1266,7 +1233,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1280,7 +1247,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1294,7 +1261,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1308,7 +1275,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1339,7 +1306,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D2:E7 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B3 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,64 +1315,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1416,19 +1383,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1439,22 +1406,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1465,16 +1432,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1485,19 +1452,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1508,22 +1475,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1534,10 +1501,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1548,10 +1515,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1562,10 +1529,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1576,10 +1543,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1590,10 +1557,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1604,10 +1571,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1618,10 +1585,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1649,7 +1616,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D2:E7 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B3 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,72 +1626,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1789,7 +1756,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1854,7 +1821,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1919,7 +1886,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1984,7 +1951,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2049,7 +2016,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2114,7 +2081,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2179,7 +2146,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2244,7 +2211,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2309,7 +2276,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2374,7 +2341,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2439,7 +2406,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2504,7 +2471,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2583,434 +2550,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:E7 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3030,214 +2872,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:E7 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3060,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3269,72 +3070,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3157,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3366,107 +3167,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3488,7 +3289,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D2:E7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3498,107 +3299,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3421,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3630,18 +3431,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3652,7 +3453,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3663,7 +3464,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3674,7 +3475,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3685,7 +3486,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3696,7 +3497,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3707,7 +3508,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3718,7 +3519,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3729,7 +3530,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3740,7 +3541,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3751,7 +3552,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3762,7 +3563,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3773,7 +3574,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3801,7 +3602,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:E7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3811,18 +3612,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3833,7 +3634,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3844,7 +3645,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3855,7 +3656,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3866,7 +3667,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3877,7 +3678,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3888,7 +3689,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3899,7 +3700,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3910,7 +3711,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3921,7 +3722,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3932,7 +3733,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3744,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3954,7 +3755,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3965,7 +3766,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3976,7 +3777,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3987,7 +3788,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3998,7 +3799,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -4009,7 +3810,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -4020,7 +3821,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4031,7 +3832,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +603,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B3 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +985,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B3 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B3 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2553,7 +2553,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2875,7 +2875,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3060,7 +3060,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3157,7 +3157,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3289,7 +3289,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3421,7 +3421,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3602,7 +3602,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -613,19 +610,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,16 +769,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,20 +992,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -1022,7 +1019,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -1036,7 +1033,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -1050,7 +1047,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -1064,7 +1061,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -1078,7 +1075,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -1092,7 +1089,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -1106,7 +1103,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1120,7 +1117,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -1134,7 +1131,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -1148,7 +1145,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -1162,7 +1159,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -1176,7 +1173,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -1190,7 +1187,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1204,7 +1201,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -1218,7 +1215,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -1232,7 +1229,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1246,7 +1243,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1260,7 +1257,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1274,7 +1271,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1322,40 +1319,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1386,16 +1383,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1409,16 +1406,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1435,13 +1432,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1455,16 +1452,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1478,16 +1475,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1504,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1518,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1532,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1546,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1557,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1574,7 +1571,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1588,7 +1585,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2550,16 +2547,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,287 +2569,224 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2889,13 +2823,13 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,106 +3101,106 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3299,106 +3233,106 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3431,13 +3365,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,17 +3546,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -3633,7 +3567,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -3644,7 +3578,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -3655,7 +3589,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -3666,7 +3600,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -3677,7 +3611,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -3688,7 +3622,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -3699,7 +3633,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -3710,7 +3644,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -3721,7 +3655,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -3732,7 +3666,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -3743,7 +3677,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -3754,7 +3688,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -3765,7 +3699,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -3776,7 +3710,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -3787,7 +3721,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -3798,7 +3732,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -3809,7 +3743,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -3820,7 +3754,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -3831,7 +3765,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="n">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -597,165 +596,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">ABS(0.15*D2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">ABS(0.15*D3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">ABS(0.15*D4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">ABS(0.15*D5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">ABS(0.15*D6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">ABS(0.15*D7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -974,7 +814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1295,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2549,7 +2389,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2991,9 +2831,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3004,72 +2844,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
+      <c r="A5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
+      <c r="A6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
+      <c r="A8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
+      <c r="A10" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
+      <c r="A11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
+      <c r="A12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
+      <c r="A13" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
+      <c r="A14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3220,138 +3095,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3528,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3784,4 +3527,163 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">ABS(0.15*D2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">ABS(0.15*D3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">ABS(0.15*D4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">ABS(0.15*D5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">ABS(0.15*D6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">ABS(0.15*D7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,64 +534,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -599,7 +626,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,21 +636,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -637,7 +664,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -651,7 +678,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -665,7 +692,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -679,7 +706,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -693,7 +720,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -707,7 +734,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -721,7 +748,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -735,7 +762,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -749,7 +776,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -763,7 +790,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -777,7 +804,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -791,7 +818,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -822,7 +849,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,21 +859,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -859,8 +886,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -873,8 +900,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -887,8 +914,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -901,8 +928,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -915,8 +942,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -929,8 +956,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -943,8 +970,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -957,8 +984,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -971,8 +998,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -985,8 +1012,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -999,8 +1026,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1013,8 +1040,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1027,8 +1054,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1041,8 +1068,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1055,8 +1082,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1069,8 +1096,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1083,8 +1110,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1097,8 +1124,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1111,8 +1138,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1143,7 +1170,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A6:B7 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,57 +1186,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1220,19 +1247,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1243,22 +1270,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1269,16 +1296,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1289,19 +1316,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1312,22 +1339,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1338,10 +1365,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1352,10 +1379,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1366,10 +1393,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1380,10 +1407,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1394,10 +1421,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1408,10 +1435,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1422,10 +1449,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1453,7 +1480,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A6:B7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,72 +1490,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1593,7 +1620,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1658,7 +1685,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1723,7 +1750,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1788,7 +1815,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1853,7 +1880,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1918,7 +1945,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1983,7 +2010,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2048,7 +2075,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2113,7 +2140,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2178,7 +2205,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2243,7 +2270,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2308,7 +2335,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2390,7 +2417,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2401,230 +2428,230 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2649,7 +2676,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2660,24 +2687,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2685,10 +2712,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2696,10 +2723,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2707,10 +2734,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2718,10 +2745,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2729,10 +2756,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2740,10 +2767,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2751,10 +2778,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2762,10 +2789,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2773,10 +2800,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2784,10 +2811,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2795,10 +2822,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2806,10 +2833,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2833,8 +2860,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,107 +2871,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
+      <c r="A3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
+      <c r="A9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2993,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2976,107 +3003,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
+      <c r="A3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
+      <c r="A9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3125,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3108,18 +3135,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3130,7 +3157,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3141,7 +3168,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3152,7 +3179,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3163,7 +3190,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3174,7 +3201,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3185,7 +3212,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3196,7 +3223,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3207,7 +3234,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3218,7 +3245,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3229,7 +3256,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3240,7 +3267,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3251,7 +3278,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3279,7 +3306,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3289,18 +3316,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3310,8 +3337,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3321,8 +3348,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3332,8 +3359,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3343,8 +3370,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3354,8 +3381,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3365,8 +3392,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3376,8 +3403,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3387,8 +3414,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3398,8 +3425,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3409,8 +3436,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3420,8 +3447,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3431,8 +3458,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3442,8 +3469,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3453,8 +3480,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3464,8 +3491,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
+      <c r="A17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3475,8 +3502,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3486,8 +3513,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3497,8 +3524,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3508,8 +3535,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3537,7 +3564,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A6:B7 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3547,24 +3574,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3583,7 +3610,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3602,7 +3629,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3621,7 +3648,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3640,7 +3667,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3659,7 +3686,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
